--- a/state-chart/m5/chart/chart/0100_Flow/110_Arrow/doc/ArrowFlow.xlsx
+++ b/state-chart/m5/chart/chart/0100_Flow/110_Arrow/doc/ArrowFlow.xlsx
@@ -406,12 +406,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>setdiff_SP();
-setdiff_PQ();
-setdiff_TG();</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">setdiff_allclear();
 </t>
     <phoneticPr fontId="2"/>
@@ -638,6 +632,12 @@
   </si>
   <si>
     <t>point_PQRT();</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>setdiff_SP();
+setdiff_clear_PQ();
+setdiff_TG();</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2386,7 +2386,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
@@ -2441,19 +2441,19 @@
         <v>35</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>7</v>
@@ -2483,19 +2483,19 @@
         <v>36</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>48</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>10</v>
@@ -2518,23 +2518,23 @@
         <v>26</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="L4" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N4" s="14" t="s">
         <v>7</v>
@@ -2611,10 +2611,10 @@
         <v>49</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
@@ -2661,13 +2661,13 @@
       <c r="H9" s="19"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O9" s="18"/>
       <c r="P9" s="20"/>
@@ -2695,12 +2695,12 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O10" s="18"/>
       <c r="P10" s="20"/>
     </row>
-    <row r="11" spans="1:16" ht="57.75" thickTop="1" thickBot="1">
+    <row r="11" spans="1:16" ht="76.5" thickTop="1" thickBot="1">
       <c r="A11" s="17"/>
       <c r="B11" s="18" t="s">
         <v>37</v>
@@ -2714,19 +2714,19 @@
       <c r="G11" s="18"/>
       <c r="H11" s="19"/>
       <c r="I11" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="18" t="s">
-        <v>51</v>
-      </c>
       <c r="K11" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
@@ -2749,16 +2749,16 @@
         <v>41</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
@@ -2852,13 +2852,13 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -2880,13 +2880,13 @@
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N18" s="26"/>
       <c r="O18" s="26"/>
@@ -2926,7 +2926,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
